--- a/biology/Zoologie/Chartella_papyracea/Chartella_papyracea.xlsx
+++ b/biology/Zoologie/Chartella_papyracea/Chartella_papyracea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Petite flustre[4] (Chartella papyracea) ou Chartelle[5] est une  espèce d'ectoproctes de la famille des Flustridae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Petite flustre (Chartella papyracea) ou Chartelle est une  espèce d'ectoproctes de la famille des Flustridae.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,43 +548,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Alimentation
-Reproduction</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chartella_papyracea</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chartella_papyracea</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chartella papyracea est une espèce marine. Elle est présente en Atlantique Nord-Est, depuis le sud de la mer du Nord et la mer d'Irlande, jusqu’au Portugal. On la trouve en Manche et dans le golfe de Gascogne[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chartella papyracea est une espèce marine. Elle est présente en Atlantique Nord-Est, depuis le sud de la mer du Nord et la mer d'Irlande, jusqu’au Portugal. On la trouve en Manche et dans le golfe de Gascogne.
 </t>
         </is>
       </c>
